--- a/Assets/Resources/Configs/Excel/BagAttrConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/BagAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18240" windowHeight="6920"/>
+    <workbookView windowWidth="28680" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="BagAttr" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -435,7 +435,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
